--- a/product_list.xlsx
+++ b/product_list.xlsx
@@ -407,7 +407,7 @@
         <v>product_code</v>
       </c>
       <c r="B1" t="str">
-        <v>price</v>
+        <v>product_price</v>
       </c>
     </row>
     <row r="2">
